--- a/biology/Botanique/Sphaeralcea_coulteri/Sphaeralcea_coulteri.xlsx
+++ b/biology/Botanique/Sphaeralcea_coulteri/Sphaeralcea_coulteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sphaeralcea coulteri est une espèce végétale de la famille des Malvaceae, originaire du continent nord-américain.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante érigée aux tiges grêles mesure entre 20 et 150 cm de hauteur. Les feuilles, fines et couvertes d'un duvet grisâtre, de 1,3 à 3,1 cm de longueur. Elles sont ovales ou un peu arrondies, et ont une marge festonnée, entière ou dotée de quelques lobes peu profonds[1]
-Appareil reproducteur
-La floraison a lieu entre janvier et mai.
-Les fleurs, de couleur orange ou rouge-orangé, mesurent de 2 à 2,5 cm de diamètre[1]. La corolle présente 5 pétales et l'androcée de nombreuses étamines jointes pour former un tube autour du pistil.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante érigée aux tiges grêles mesure entre 20 et 150 cm de hauteur. Les feuilles, fines et couvertes d'un duvet grisâtre, de 1,3 à 3,1 cm de longueur. Elles sont ovales ou un peu arrondies, et ont une marge festonnée, entière ou dotée de quelques lobes peu profonds
 </t>
         </is>
       </c>
@@ -543,12 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante vit dans les plaines sableuses des déserts du sud-ouest des États-Unis et du nord-ouest du Mexique. La limite nord de son aire de répartition va du sud-est de la Californie au sud de l'Arizona.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre janvier et mai.
+Les fleurs, de couleur orange ou rouge-orangé, mesurent de 2 à 2,5 cm de diamètre. La corolle présente 5 pétales et l'androcée de nombreuses étamines jointes pour former un tube autour du pistil.
 </t>
         </is>
       </c>
@@ -574,10 +595,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante vit dans les plaines sableuses des déserts du sud-ouest des États-Unis et du nord-ouest du Mexique. La limite nord de son aire de répartition va du sud-est de la Californie au sud de l'Arizona.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sphaeralcea_coulteri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sphaeralcea_coulteri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
